--- a/data/AutomationTestPlan.xlsx
+++ b/data/AutomationTestPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dragana\eclipse-workspace\Selenium projekat\SeleniumRepo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A28783-5E23-4DD5-B859-E5C14515D991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E3A22B-076A-44F9-9333-548EADDECEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="62">
   <si>
     <t>Precondition</t>
   </si>
@@ -153,9 +153,6 @@
     <t>Boska Petrovica</t>
   </si>
   <si>
-    <t>Second address 3</t>
-  </si>
-  <si>
     <t>delete address</t>
   </si>
   <si>
@@ -208,6 +205,15 @@
   </si>
   <si>
     <t>visible delete "X" on My Wishlist page</t>
+  </si>
+  <si>
+    <t>Add multiple wish list</t>
+  </si>
+  <si>
+    <t>Treca lista zelja</t>
+  </si>
+  <si>
+    <t>Second address</t>
   </si>
 </sst>
 </file>
@@ -661,7 +667,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,7 +745,7 @@
         <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -895,7 +901,7 @@
         <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -985,7 +991,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -993,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1001,7 +1007,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1031,7 +1037,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>11</v>
@@ -1042,7 +1048,7 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="4">
         <v>15</v>
@@ -1053,10 +1059,10 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1064,7 +1070,7 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="4">
         <v>2001</v>
@@ -1075,7 +1081,7 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16">
         <v>123456</v>
@@ -1086,7 +1092,7 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" s="4">
         <v>123456</v>
@@ -1097,7 +1103,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" s="4">
         <v>123456</v>
@@ -1108,7 +1114,7 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1116,7 +1122,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1133,7 +1139,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1195,7 +1201,10 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="D7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1203,10 +1212,13 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="D8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1214,7 +1226,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1222,7 +1234,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
